--- a/backend/templates/Ontact_lunch.xlsx
+++ b/backend/templates/Ontact_lunch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\restaurant-form\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5833053-0CA8-4BA1-845C-12505744F2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81C8EB-4A0D-4592-90B3-D05C7712F4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>가게이름</t>
   </si>
@@ -202,15 +202,9 @@
     <t>탄탄면</t>
   </si>
   <si>
-    <t>가야라멘</t>
-  </si>
-  <si>
     <t>일식 라면</t>
   </si>
   <si>
-    <t>미분당</t>
-  </si>
-  <si>
     <t>한끼마끼</t>
   </si>
   <si>
@@ -220,15 +214,9 @@
     <t>제육</t>
   </si>
   <si>
-    <t>돼지궁둥이소풍가는날</t>
-  </si>
-  <si>
     <t>부대찌개</t>
   </si>
   <si>
-    <t>오사카우동</t>
-  </si>
-  <si>
     <t>일등집</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
   </si>
   <si>
     <t>기본 2메뉴(육회덮밥, 가지덮밥) + 변동메뉴</t>
-  </si>
-  <si>
-    <t>타이스토리</t>
   </si>
   <si>
     <t>태국 음식, 돼지 쌀국수가 독특하고 맛났음</t>
@@ -327,6 +312,22 @@
   </si>
   <si>
     <t>방콕익스프레스 신촌본점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지궁뎅이 소풍가는날</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이스토리 이대점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가야라멘 이대점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미분당 이대점</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +648,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -778,7 +779,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>30</v>
@@ -814,7 +815,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>37</v>
@@ -828,7 +829,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>40</v>
@@ -884,7 +885,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -903,7 +904,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>55</v>
@@ -936,10 +937,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -947,7 +948,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>52</v>
@@ -961,7 +962,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -969,10 +970,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
@@ -983,7 +984,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
@@ -994,7 +995,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
@@ -1002,10 +1003,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
@@ -1013,52 +1014,54 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>50</v>
@@ -1066,10 +1069,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>50</v>
@@ -1077,23 +1080,12 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="3" t="s">
         <v>26</v>
       </c>
     </row>
